--- a/downloaded_files/EEES482_Tutorial-35850.xlsx
+++ b/downloaded_files/EEES482_Tutorial-35850.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed Ayman Abdallah Hussein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1190372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن عادل عبدالقوى عبدالعزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Adel Abdelkawy</x:t>
   </x:si>
   <x:si>
     <x:t>1200189</x:t>
@@ -188,7 +197,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -488,7 +497,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T6"/>
+  <x:dimension ref="A1:T7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -498,7 +507,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="29.720625000000002" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.580625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -611,7 +620,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4149338773</x:v>
+        <x:v>45919.6097165856</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -643,7 +652,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4143864236</x:v>
+        <x:v>45906.4149338773</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -675,7 +684,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4154351042</x:v>
+        <x:v>45906.4143864236</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -703,9 +712,11 @@
       <x:c r="C6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s"/>
+      <x:c r="D6" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4454012384</x:v>
+        <x:v>45906.4154351042</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -722,6 +733,36 @@
       <x:c r="R6" s="2" t="s"/>
       <x:c r="S6" s="2" t="s"/>
       <x:c r="T6" s="2" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:20">
+      <x:c r="A7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s"/>
+      <x:c r="E7" s="3">
+        <x:v>45906.4454012384</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="s"/>
+      <x:c r="G7" s="2" t="s"/>
+      <x:c r="H7" s="2" t="s"/>
+      <x:c r="I7" s="2" t="s"/>
+      <x:c r="J7" s="2" t="s"/>
+      <x:c r="K7" s="2" t="s"/>
+      <x:c r="L7" s="2" t="s"/>
+      <x:c r="M7" s="2" t="s"/>
+      <x:c r="N7" s="2" t="s"/>
+      <x:c r="O7" s="2" t="s"/>
+      <x:c r="P7" s="2" t="s"/>
+      <x:c r="Q7" s="2" t="s"/>
+      <x:c r="R7" s="2" t="s"/>
+      <x:c r="S7" s="2" t="s"/>
+      <x:c r="T7" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EEES482_Tutorial-35850.xlsx
+++ b/downloaded_files/EEES482_Tutorial-35850.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -82,6 +82,15 @@
   </x:si>
   <x:si>
     <x:t>نورهان بهاء على عبدالرحمن احمد شاهين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170221</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف حازم عبد الرؤوف دخيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hazem Abdelrouf Dekhel</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -197,7 +206,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -497,7 +506,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T7"/>
+  <x:dimension ref="A1:T8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -764,6 +773,38 @@
       <x:c r="S7" s="2" t="s"/>
       <x:c r="T7" s="2" t="s"/>
     </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45926.5387789352</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/EEES482_Tutorial-35850.xlsx
+++ b/downloaded_files/EEES482_Tutorial-35850.xlsx
@@ -810,11 +810,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Graduation Project-2 (EEES482) Location : ----- Time : Sunday(20:21)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Graduation Project-2 (EEES482) Location : ----- Time : Sunday(19:21)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Graduation Project-2 (EEES482) Location : ----- Time : Sunday(20:21)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Graduation Project-2 (EEES482) Location : ----- Time : Sunday(19:21)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Graduation Project-2 (EEES482) Location : ----- Time : Sunday(20:21)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Graduation Project-2 (EEES482) Location : ----- Time : Sunday(19:21)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
